--- a/01 DATA SCIENCE/EXCEL/data/transfermarkt_values.xlsx
+++ b/01 DATA SCIENCE/EXCEL/data/transfermarkt_values.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7605" yWindow="615" windowWidth="26550" windowHeight="18810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19860" yWindow="1095" windowWidth="17910" windowHeight="18810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,7 +53,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -65,7 +65,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -140,6 +139,116 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Bar Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Tabelle1'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Tabelle1'!$C$1:$C$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Tabelle1'!$D$2:$D$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,20 +513,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="14.7109375" customWidth="1" min="1" max="6"/>
+    <col width="14.7109375" customWidth="1" min="1" max="4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="3">
@@ -438,18 +547,13 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
           <t>value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -461,17 +565,13 @@
           <t>Mbappe</t>
         </is>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="n">
+      <c r="D2" s="4" t="n">
         <v>160000000</v>
       </c>
-      <c r="F2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
@@ -484,16 +584,12 @@
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="n">
         <v>150000000</v>
       </c>
-      <c r="F3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -506,16 +602,12 @@
         </is>
       </c>
       <c r="D4" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>1000000000</v>
-      </c>
-      <c r="F4" s="5" t="n"/>
+        <v>100000000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
@@ -528,16 +620,12 @@
         </is>
       </c>
       <c r="D5" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="n">
         <v>100000000</v>
       </c>
-      <c r="F5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -550,125 +638,12 @@
         </is>
       </c>
       <c r="D6" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="n">
         <v>100000000</v>
       </c>
-      <c r="F6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Romelu</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Lukaku</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="F7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Bruno</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Fernandes</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>90000000</v>
-      </c>
-      <c r="F8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Kevin</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>De Bruyne</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>90000000</v>
-      </c>
-      <c r="F9" s="5" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Neymar</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Junior</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>90000000</v>
-      </c>
-      <c r="F10" s="5" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Phil</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Foden</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>85000000</v>
-      </c>
-      <c r="F11" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 DATA SCIENCE/EXCEL/data/transfermarkt_values.xlsx
+++ b/01 DATA SCIENCE/EXCEL/data/transfermarkt_values.xlsx
@@ -248,6 +248,31 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -518,13 +543,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14.7109375" customWidth="1" min="1" max="4"/>
   </cols>
@@ -553,7 +578,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -571,7 +596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
@@ -589,7 +614,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -607,7 +632,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
@@ -625,7 +650,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -641,6 +666,25 @@
         <v>100000000</v>
       </c>
     </row>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
